--- a/ALL.xlsx
+++ b/ALL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <t>5%, no debt almost</t>
   </si>
   <si>
-    <t>geico, progressive 17B, state-farm (geico, state seems mutually owned)</t>
+    <t>geico, progressive 17B, state-farm (geico, state seems mutually owned), travelers 32B</t>
   </si>
 </sst>
 </file>
@@ -466,18 +466,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -494,6 +482,18 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,6 +584,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8401050"/>
+          <a:ext cx="7010400" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -890,7 +934,7 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -905,7 +949,7 @@
       <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
@@ -944,7 +988,7 @@
       <c r="C4" s="18">
         <v>63.52</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="28">
         <v>1270.4000000000001</v>
       </c>
       <c r="E4" s="19"/>
@@ -969,7 +1013,7 @@
       <c r="C5" s="23">
         <v>62.98</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="29">
         <v>1889.4</v>
       </c>
       <c r="E5" s="21"/>
@@ -994,7 +1038,7 @@
       <c r="C6" s="18">
         <v>61.3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>1839</v>
       </c>
       <c r="E6" s="19"/>
@@ -1019,7 +1063,7 @@
       <c r="C7" s="23">
         <v>62.45</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="29">
         <v>2498</v>
       </c>
       <c r="E7" s="21"/>
@@ -1044,7 +1088,7 @@
       <c r="C8" s="17">
         <v>62</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>1860</v>
       </c>
       <c r="E8" s="19"/>
@@ -1106,11 +1150,11 @@
         <f>SUM(B3:B9)</f>
         <v>130</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <f>SUM(D3:D9)</f>
         <v>10011.299999999999</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <f>D13+G3</f>
         <v>8124.329999999999</v>
       </c>
@@ -1322,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1524,7 @@
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1488,7 +1532,7 @@
       <c r="A23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="35">
         <v>42306</v>
       </c>
     </row>
@@ -1543,7 +1587,7 @@
       <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="31">
         <v>-0.28999999999999998</v>
       </c>
       <c r="F34">
@@ -1554,7 +1598,7 @@
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="31">
         <v>-0.57999999999999996</v>
       </c>
     </row>
@@ -1563,7 +1607,7 @@
       <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="31">
         <v>0.86</v>
       </c>
     </row>
@@ -1572,7 +1616,7 @@
       <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <v>0.15</v>
       </c>
       <c r="F37">
@@ -1634,10 +1678,10 @@
       <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="38"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="39"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
@@ -1659,29 +1703,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="106.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="106.85546875" style="37"/>
+    <col min="1" max="1" width="20.85546875" style="33" customWidth="1"/>
+    <col min="2" max="16384" width="106.85546875" style="33"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>55</v>
       </c>
     </row>

--- a/ALL.xlsx
+++ b/ALL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Acquisition Date</t>
   </si>
@@ -40,18 +40,6 @@
     <t>Cost Basis ($)</t>
   </si>
   <si>
-    <t>Value($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss</t>
-  </si>
-  <si>
-    <t>($)</t>
-  </si>
-  <si>
-    <t>Gain/Loss (%)</t>
-  </si>
-  <si>
     <t>mean unit cost</t>
   </si>
   <si>
@@ -142,12 +130,6 @@
     <t>PE ratio</t>
   </si>
   <si>
-    <t>08/06/2015 Pend Sell</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>08/04/2015 (Short Term)</t>
   </si>
   <si>
@@ -248,6 +230,15 @@
   </si>
   <si>
     <t>geico, progressive 17B, state-farm (geico, state seems mutually owned), travelers 32B</t>
+  </si>
+  <si>
+    <t>Cost Basis adjusted for Wash Sale</t>
+  </si>
+  <si>
+    <t>pending sell</t>
+  </si>
+  <si>
+    <t>net share</t>
   </si>
 </sst>
 </file>
@@ -316,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -393,11 +384,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FFD6D6D6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFD6D6D6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFD6D6D6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FFD6D6D6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -443,9 +528,6 @@
     <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -456,22 +538,10 @@
     <xf numFmtId="4" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,6 +552,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -493,6 +566,58 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,17 +1025,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="20" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" style="20"/>
+    <col min="1" max="1" width="39.42578125" style="19" customWidth="1"/>
+    <col min="2" max="6" width="15.7109375" style="19"/>
     <col min="7" max="7" width="15.7109375" style="16"/>
-    <col min="8" max="8" width="17" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.7109375" style="20"/>
+    <col min="8" max="8" width="17" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -928,15 +1053,9 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -946,404 +1065,357 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="37"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="22">
-        <v>-30</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23">
-        <v>-1886.97</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="36">
+        <v>30</v>
+      </c>
+      <c r="C3" s="36">
+        <v>62</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1860</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="22">
+        <v>30</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1907.66</v>
+      </c>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="38">
+        <v>30</v>
+      </c>
+      <c r="C4" s="38">
+        <v>61.3</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1839</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="36">
+        <v>30</v>
+      </c>
+      <c r="C5" s="36">
+        <v>62.45</v>
+      </c>
+      <c r="D5" s="44">
+        <v>1873.5</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="38">
         <v>20</v>
       </c>
-      <c r="C4" s="18">
-        <v>63.52</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1270.4000000000001</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
-        <v>1250.8</v>
-      </c>
-      <c r="H4" s="17">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="I4" s="20">
-        <v>-1.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="22">
-        <v>30</v>
-      </c>
-      <c r="C5" s="23">
-        <v>62.98</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1889.4</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23">
-        <v>1876.2</v>
-      </c>
-      <c r="H5" s="22">
-        <v>-13.2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="17">
-        <v>30</v>
-      </c>
-      <c r="C6" s="18">
-        <v>61.3</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1839</v>
-      </c>
-      <c r="E6" s="19"/>
+      <c r="C6" s="38">
+        <v>63.6</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1272.02</v>
+      </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="18">
-        <v>1876.2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I6" s="20">
-        <v>2.02</v>
-      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="22">
-        <v>40</v>
-      </c>
-      <c r="C7" s="23">
-        <v>62.45</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2498</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23">
-        <v>2501.6</v>
-      </c>
-      <c r="H7" s="22">
-        <v>3.6</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="17">
-        <v>30</v>
-      </c>
-      <c r="C8" s="17">
-        <v>62</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1860</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="A7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="46">
+        <v>10</v>
+      </c>
+      <c r="C8" s="46">
+        <v>62.53</v>
+      </c>
+      <c r="D8" s="47">
+        <v>625.30999999999995</v>
+      </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="18">
-        <v>1876.2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>16.2</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="51">
         <v>10</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="51">
         <v>65.45</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="51">
         <v>654.5</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25">
-        <v>625.4</v>
-      </c>
-      <c r="H9" s="25">
-        <v>-29.1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>-4.45</v>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53">
+        <v>-2.4300000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E10" s="16"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="20" t="s">
-        <v>42</v>
+      <c r="E12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="A13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="19">
         <f>SUM(B3:B9)</f>
         <v>130</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="19">
         <f>SUM(D3:D9)</f>
-        <v>10011.299999999999</v>
-      </c>
-      <c r="E13" s="30">
-        <f>D13+G3</f>
-        <v>8124.329999999999</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>8124.33</v>
+      </c>
+      <c r="E13" s="25">
+        <f>D13-H3</f>
+        <v>6216.67</v>
+      </c>
+      <c r="F13" s="25">
+        <f>B13-G3</f>
+        <v>100</v>
+      </c>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20">
-        <f>E13/B13</f>
-        <v>62.494846153846147</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <f>E13/F13</f>
+        <v>62.166699999999999</v>
+      </c>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="20">
-        <v>62.54</v>
-      </c>
-      <c r="E16" s="27">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19">
+        <v>63.86</v>
+      </c>
+      <c r="E16" s="24">
         <f>(D16-D15)/D15</f>
-        <v>7.2252111866464609E-4</v>
-      </c>
-      <c r="G16" s="20"/>
+        <v>2.7238055100238565E-2</v>
+      </c>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="20">
-        <f>D16*B13</f>
-        <v>8130.2</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="G17" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="D17" s="19">
+        <f>F13*D16</f>
+        <v>6386</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20">
-        <f>(D16-D15)*B13</f>
-        <v>5.8700000000007435</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="25">
+        <f>D17-E13</f>
+        <v>169.32999999999993</v>
+      </c>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="20">
+        <v>29</v>
+      </c>
+      <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="20">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
         <f>D18+D20</f>
-        <v>5.8700000000007435</v>
-      </c>
-      <c r="E21" s="27">
-        <f>D21/(B13*D15)</f>
-        <v>7.2252111866464609E-4</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>169.32999999999993</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="20"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="20"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="20"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="20"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="20"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="20"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="20"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="20"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="3:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="20"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="34" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="20"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="20"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="20"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="20"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="20"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="20"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="20"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="20"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="20"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="20"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="20"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="20"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="20"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="20"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="20"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="20"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="20"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="20"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="20"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="20"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="20"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="20"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="20"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="20"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="20"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="7:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" s="20"/>
+      <c r="G59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1366,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1384,68 +1456,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1525,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0.87</v>
@@ -1461,60 +1533,60 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1522,36 +1594,36 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="35">
+        <v>27</v>
+      </c>
+      <c r="C23" s="30">
         <v>42306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>39700</v>
@@ -1559,35 +1631,35 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="31">
+        <v>43</v>
+      </c>
+      <c r="E34" s="26">
         <v>-0.28999999999999998</v>
       </c>
       <c r="F34">
@@ -1596,27 +1668,27 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="31">
+        <v>44</v>
+      </c>
+      <c r="E35" s="26">
         <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="31">
+        <v>45</v>
+      </c>
+      <c r="E36" s="26">
         <v>0.86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="31">
+        <v>46</v>
+      </c>
+      <c r="E37" s="26">
         <v>0.15</v>
       </c>
       <c r="F37">
@@ -1626,16 +1698,16 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,10 +1750,10 @@
       <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+      <c r="A53" s="34"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
@@ -1709,24 +1781,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="106.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="106.85546875" style="33"/>
+    <col min="1" max="1" width="20.85546875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="106.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>46</v>
+      <c r="A5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>55</v>
+      <c r="A7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ALL.xlsx
+++ b/ALL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,18 +555,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -618,6 +606,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1055,7 +1055,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="32"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -1066,24 +1066,24 @@
       <c r="F2" s="11"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="33"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="32">
         <v>30</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>62</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <v>1860</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="20" t="s">
         <v>69</v>
       </c>
@@ -1099,16 +1099,16 @@
       <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <v>30</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="34">
         <v>61.3</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>1839</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="17"/>
@@ -1117,13 +1117,13 @@
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="32">
         <v>30</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="32">
         <v>62.45</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <v>1873.5</v>
       </c>
       <c r="F5" s="22"/>
@@ -1134,13 +1134,13 @@
       <c r="A6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <v>20</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="34">
         <v>63.6</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="39">
         <v>1272.02</v>
       </c>
       <c r="F6" s="18"/>
@@ -1148,27 +1148,27 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="42">
         <v>10</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="42">
         <v>62.53</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="43">
         <v>625.30999999999995</v>
       </c>
       <c r="F8" s="17"/>
@@ -1176,23 +1176,23 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="47">
         <v>10</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="47">
         <v>65.45</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="47">
         <v>654.5</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="49">
         <v>-2.4300000000000002</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1750,10 +1750,10 @@
       <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="52"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="53"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
@@ -1776,7 +1776,7 @@
   <dimension ref="A5:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="106.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
